--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -13,6 +13,10 @@
     <sheet name="1-uml" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2-DA" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="3-DCU" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="4-java Gen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="1-Recup" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="2-recup" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="positivos" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="164">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -176,6 +180,18 @@
     <t xml:space="preserve">4-java</t>
   </si>
   <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -218,9 +234,6 @@
     <t xml:space="preserve">7 minutos 34 segundos</t>
   </si>
   <si>
-    <t xml:space="preserve">promedio</t>
-  </si>
-  <si>
     <t xml:space="preserve">segundo</t>
   </si>
   <si>
@@ -408,14 +421,115 @@
   </si>
   <si>
     <t xml:space="preserve">3 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  15:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  16:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  23:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  16:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  15:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  16:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  17:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  23:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/9,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 1 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 2 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 3 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 4 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 5 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 6 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 7 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 8 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 9 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 de abril de 2025  22:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 de abril de 2025  22:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total alumnos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -441,12 +555,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -483,12 +603,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,7 +633,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -518,6 +665,66 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,12 +739,12 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,13 +979,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -794,14 +1001,26 @@
       <c r="C1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,11 +1033,29 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">H2+I2/2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C2,E2,G2,J2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,11 +1068,29 @@
       <c r="C3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="E3" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">H3+I3/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C3,E3,G3,J3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,8 +1103,29 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">H4+I4/2</f>
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C4,E4,G4,J4),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,11 +1138,29 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">H5+I5/2</f>
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C5,E5,G5,J5),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,11 +1173,29 @@
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>9</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">H6+I6/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C6,E6,G6,J6),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,11 +1208,29 @@
       <c r="C7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>8.5</v>
+      <c r="G7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">H7+I7/2</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,E7,G7,J7),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,8 +1243,29 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">H8+I8/2</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C8,E8,G8,J8),0)</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,11 +1278,29 @@
       <c r="C9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="E9" s="0" t="n">
         <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">H9+I9/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C9,E9,G9,J9),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,8 +1313,29 @@
       <c r="C10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>10</v>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">H10+I10/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,G10,J10),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,8 +1348,29 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">H11+I11/2</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,G11,J11),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,11 +1383,29 @@
       <c r="C12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="E12" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">H12+I12/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,G12,J12),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,8 +1418,29 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">H13+I13/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,G13,J13),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,11 +1450,38 @@
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
+      <c r="C14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>45758</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>45758</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">H14+I14/2</f>
+        <v>10</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,G14,J14),0)</f>
+        <v>9</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,50 +1494,42 @@
       <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">H15+I15/2</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,G15,J15),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="K2:K15">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1078,11 +1547,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -1094,13 +1563,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,10 +1594,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -1167,10 +1636,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -1187,10 +1656,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -1218,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -1238,10 +1707,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -1269,10 +1738,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -1311,10 +1780,10 @@
         <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -1338,11 +1807,11 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -1356,22 +1825,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,10 +1868,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -1424,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -1438,10 +1907,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -1452,10 +1921,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -1466,10 +1935,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -1514,10 +1983,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -1537,10 +2006,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -1574,10 +2043,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -1599,10 +2068,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -1619,10 +2088,10 @@
         <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -1656,10 +2125,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -1681,10 +2150,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -1729,10 +2198,10 @@
         <v>44</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -1757,13 +2226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
@@ -1777,22 +2246,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,10 +2275,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -1829,10 +2298,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -1854,10 +2323,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -1888,10 +2357,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -1911,10 +2380,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -1936,10 +2405,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
@@ -1956,10 +2425,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -1981,10 +2450,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -1995,10 +2464,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -2015,10 +2484,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -2040,10 +2509,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -2054,10 +2523,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -2074,10 +2543,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -2099,10 +2568,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -2113,10 +2582,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
@@ -2133,10 +2602,10 @@
         <v>29</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -2158,66 +2627,71 @@
         <v>29</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>89</v>
+      <c r="A21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">AVERAGE(F22:F23)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1</v>
+        <f aca="false">ROUND(MAX(H22,G22),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I23" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2232,10 +2706,10 @@
         <v>38</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -2257,10 +2731,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -2277,10 +2751,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -2300,16 +2774,873 @@
         <v>44</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I27,"&gt;0")</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F4)</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">MAX(H3,G3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="G1:K16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.45"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="n">
+        <v>45737</v>
+      </c>
+      <c r="J1" s="4" t="n">
+        <v>45751</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">I2+J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">I3+J3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">I4+J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">I5+J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">I6+J6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">I7+J7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">I8+J8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">I9+J9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">I10+J10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">I11+J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">I12+J12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">I13+J13</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">I14+J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">I15+J15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I15,"&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">COUNTIF(J2:J15,"&gt;0")</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -12,11 +12,12 @@
     <sheet name="notas" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="1-uml" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2-DA" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="3-DCU" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="4-java Gen" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="1-Recup" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="2-recup" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="2-recup" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="3-DCU" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="4-java Gen" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="1-Recup" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="positivos" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="5-redes" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="199">
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -42,6 +43,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santino</t>
   </si>
   <si>
@@ -51,6 +55,9 @@
     <t xml:space="preserve">santibra06@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matias</t>
   </si>
   <si>
@@ -69,6 +76,15 @@
     <t xml:space="preserve">cubillaezequiel30@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complicado</t>
+  </si>
+  <si>
     <t xml:space="preserve">violeta anahí</t>
   </si>
   <si>
@@ -96,6 +112,15 @@
     <t xml:space="preserve">Lucasnahuel415@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olimpiadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leonardo</t>
   </si>
   <si>
@@ -168,6 +193,12 @@
     <t xml:space="preserve">soria4254@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muy tarde</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-uml</t>
   </si>
   <si>
@@ -180,6 +211,9 @@
     <t xml:space="preserve">4-java</t>
   </si>
   <si>
+    <t xml:space="preserve">Recup</t>
+  </si>
+  <si>
     <t xml:space="preserve">positivos</t>
   </si>
   <si>
@@ -192,6 +226,24 @@
     <t xml:space="preserve">valoracion</t>
   </si>
   <si>
+    <t xml:space="preserve">5-redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repositorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio casas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
@@ -315,6 +367,42 @@
     <t xml:space="preserve">6 minutos 6 segundos</t>
   </si>
   <si>
+    <t xml:space="preserve">Calificación/9,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 1 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 2 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 3 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 4 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 5 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 6 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 7 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 8 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. 9 /1,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 de abril de 2025  22:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 40 segundos</t>
+  </si>
+  <si>
     <t xml:space="preserve">11 de abril de 2025  15:47</t>
   </si>
   <si>
@@ -477,59 +565,78 @@
     <t xml:space="preserve">3 minutos 43 segundos</t>
   </si>
   <si>
-    <t xml:space="preserve">Calificación/9,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 1 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 2 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 3 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 4 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 5 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 6 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 7 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 8 /1,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. 9 /1,00</t>
-  </si>
-  <si>
     <t xml:space="preserve">11 de abril de 2025  22:23</t>
   </si>
   <si>
     <t xml:space="preserve">5 minutos 42 segundos</t>
   </si>
   <si>
-    <t xml:space="preserve">11 de abril de 2025  22:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutos 40 segundos</t>
-  </si>
-  <si>
     <t xml:space="preserve">total alumnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 28 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">toal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -555,12 +662,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -603,7 +716,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,11 +729,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,7 +766,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -650,17 +783,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -676,7 +808,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -711,7 +843,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -733,18 +865,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.19"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="29.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,19 +898,70 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,13 +969,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,13 +1001,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,13 +1039,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,13 +1071,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+      <c r="L7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,13 +1103,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0.604166666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,13 +1144,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,13 +1179,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,13 +1211,34 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
+      <c r="M11" s="3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,13 +1246,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,13 +1278,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,13 +1313,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,13 +1345,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,13 +1377,72 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>0.645833333333333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">COUNTIF(E3:E16,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">COUNTIF(G3:G16,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I16,"P")</f>
+        <v>7</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">COUNTIF(K3:K16,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">COUNTIF(L3:L16,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">COUNTIF(N3:N16,"P")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">COUNTIF(G3:G16,"T")</f>
+        <v>2</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -974,21 +1457,510 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F9)</f>
+        <v>3.71428571428571</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">ROUND(MAX(H3,G3),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F21)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I24,"&gt;0")</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,71 +1971,117 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
+      <c r="E2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>45821</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>45849</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">H2+I2/2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C2,E2,G2,J2),0)</f>
+      <c r="K2" s="0" t="n">
+        <f aca="false">H2+J2/2</f>
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C2,E2,G2,K2),0)</f>
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="str">
+        <f aca="false">IF(L2&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="0" t="str">
-        <f aca="false">IF(K2&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N2:R2,L2),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
@@ -1077,28 +2095,47 @@
       <c r="H3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <f aca="false">H3+I3/2</f>
+      <c r="K3" s="0" t="n">
+        <f aca="false">H3+J3/2</f>
         <v>9.5</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C3,E3,G3,J3),0)</f>
-        <v>8</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <f aca="false">IF(K3&lt;7,"TEP","TEA")</f>
+      <c r="L3" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C3,E3,G3,K3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="str">
+        <f aca="false">IF(L3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N3:R3,L3),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -1112,28 +2149,47 @@
       <c r="H4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">H4+I4/2</f>
-        <v>8</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C4,E4,G4,J4),0)</f>
+      <c r="K4" s="0" t="n">
+        <f aca="false">H4+J4/2</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C4,E4,G4,K4),0)</f>
         <v>3</v>
       </c>
-      <c r="L4" s="0" t="str">
-        <f aca="false">IF(K4&lt;7,"TEP","TEA")</f>
+      <c r="M4" s="7" t="str">
+        <f aca="false">IF(L4&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N4:R4,L4),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -1147,28 +2203,47 @@
       <c r="H5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">H5+I5/2</f>
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C5,E5,G5,J5),0)</f>
+      <c r="K5" s="0" t="n">
+        <f aca="false">H5+J5/2</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C5,E5,G5,K5),0)</f>
         <v>5</v>
       </c>
-      <c r="L5" s="0" t="str">
-        <f aca="false">IF(K5&lt;7,"TEP","TEA")</f>
+      <c r="M5" s="7" t="str">
+        <f aca="false">IF(L5&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N5:R5,L5),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -1182,28 +2257,47 @@
       <c r="H6" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <f aca="false">H6+I6/2</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">H6+J6/2</f>
         <v>10.5</v>
       </c>
-      <c r="K6" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C6,E6,G6,J6),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <f aca="false">IF(K6&lt;7,"TEP","TEA")</f>
+      <c r="L6" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C6,E6,G6,K6),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f aca="false">IF(L6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N6:R6,L6),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -1217,28 +2311,47 @@
       <c r="H7" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">H7+I7/2</f>
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C7,E7,G7,J7),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L7" s="0" t="str">
-        <f aca="false">IF(K7&lt;7,"TEP","TEA")</f>
+      <c r="K7" s="0" t="n">
+        <f aca="false">H7+J7/2</f>
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C7,E7,G7,K7),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f aca="false">IF(L7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N7:R7,L7),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -1252,28 +2365,47 @@
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">H8+I8/2</f>
+      <c r="K8" s="0" t="n">
+        <f aca="false">H8+J8/2</f>
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C8,E8,G8,J8),0)</f>
+      <c r="L8" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C8,E8,G8,K8),0)</f>
         <v>3</v>
       </c>
-      <c r="L8" s="0" t="str">
-        <f aca="false">IF(K8&lt;7,"TEP","TEA")</f>
+      <c r="M8" s="7" t="str">
+        <f aca="false">IF(L8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N8:R8,L8),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -1287,28 +2419,47 @@
       <c r="H9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">H9+I9/2</f>
+      <c r="K9" s="0" t="n">
+        <f aca="false">H9+J9/2</f>
         <v>12.5</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C9,E9,G9,J9),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L9" s="0" t="str">
-        <f aca="false">IF(K9&lt;7,"TEP","TEA")</f>
+      <c r="L9" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C9,E9,G9,K9),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f aca="false">IF(L9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N9:R9,L9),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -1322,28 +2473,47 @@
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">H10+I10/2</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">H10+J10/2</f>
         <v>1.5</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C10,E10,G10,J10),0)</f>
-        <v>7</v>
-      </c>
-      <c r="L10" s="0" t="str">
-        <f aca="false">IF(K10&lt;7,"TEP","TEA")</f>
+      <c r="L10" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C10,E10,G10,K10),0)</f>
+        <v>7</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f aca="false">IF(L10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N10:R10,L10),0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1357,28 +2527,47 @@
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">H11+I11/2</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C11,E11,G11,J11),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="str">
-        <f aca="false">IF(K11&lt;7,"TEP","TEA")</f>
+      <c r="K11" s="0" t="n">
+        <f aca="false">H11+J11/2</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C11,E11,G11,K11),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f aca="false">IF(L11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N11:R11,L11),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
@@ -1392,34 +2581,56 @@
       <c r="H12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">H12+I12/2</f>
+      <c r="K12" s="0" t="n">
+        <f aca="false">H12+J12/2</f>
         <v>11.5</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C12,E12,G12,J12),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L12" s="0" t="str">
-        <f aca="false">IF(K12&lt;7,"TEP","TEA")</f>
+      <c r="L12" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C12,E12,G12,K12),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f aca="false">IF(L12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N12:R12,L12),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
+      <c r="E13" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>45821</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>9</v>
@@ -1427,39 +2638,58 @@
       <c r="H13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">H13+I13/2</f>
+      <c r="K13" s="0" t="n">
+        <f aca="false">H13+J13/2</f>
         <v>11.5</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C13,E13,G13,J13),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L13" s="0" t="str">
-        <f aca="false">IF(K13&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C13,E13,G13,K13),0)</f>
+        <v>7</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f aca="false">IF(L13&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N13:R13,L13),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>45758</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="n">
+      <c r="E14" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>45758</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -1468,28 +2698,47 @@
       <c r="H14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">H14+I14/2</f>
-        <v>10</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C14,E14,G14,J14),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L14" s="0" t="str">
-        <f aca="false">IF(K14&lt;7,"TEP","TEA")</f>
+      <c r="K14" s="0" t="n">
+        <f aca="false">H14+J14/2</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C14,E14,G14,K14),0)</f>
+        <v>9</v>
+      </c>
+      <c r="M14" s="7" t="str">
+        <f aca="false">IF(L14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N14:R14,L14),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -1503,31 +2752,55 @@
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">H15+I15/2</f>
+      <c r="K15" s="0" t="n">
+        <f aca="false">H15+J15/2</f>
         <v>3</v>
       </c>
-      <c r="K15" s="2" t="n">
-        <f aca="false">ROUND(AVERAGE(C15,E15,G15,J15),0)</f>
-        <v>8</v>
-      </c>
-      <c r="L15" s="0" t="str">
-        <f aca="false">IF(K15&lt;7,"TEP","TEA")</f>
+      <c r="L15" s="6" t="n">
+        <f aca="false">ROUND(AVERAGE(C15,E15,G15,K15),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="7" t="str">
+        <f aca="false">IF(L15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="8" t="n">
+        <f aca="false">ROUND(AVERAGE(N15:R15,L15),0)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K15">
+  <conditionalFormatting sqref="L2:L15">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
+  <conditionalFormatting sqref="M2:M15">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S15">
+    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1547,11 +2820,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -1563,13 +2836,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1588,16 +2861,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -1608,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -1619,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -1630,16 +2903,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -1650,16 +2923,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -1670,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -1681,16 +2954,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -1701,16 +2974,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -1721,7 +2994,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -1732,16 +3005,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -1752,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -1763,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -1774,16 +3047,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -1807,11 +3080,11 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -1825,22 +3098,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1862,16 +3135,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -1890,13 +3163,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -1904,13 +3177,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -1918,13 +3191,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -1932,13 +3205,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -1949,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -1963,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -1977,16 +3250,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -2000,16 +3273,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -2023,7 +3296,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -2037,16 +3310,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -2065,13 +3338,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -2082,16 +3355,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -2105,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -2119,16 +3392,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -2147,13 +3420,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -2164,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -2178,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -2192,16 +3465,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -2226,575 +3499,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">AVERAGE(F4:F5)</f>
-        <v>8</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">MAX(H4,G4)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">AVERAGE(F8:F9)</f>
-        <v>8.5</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">ROUND(MAX(H8,G8),0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">AVERAGE(F10:F12)</f>
-        <v>6.33333333333333</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">MAX(H10,G10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">AVERAGE(F13:F15)</f>
-        <v>6.33333333333333</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">ROUND(MAX(H13,G13),0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">AVERAGE(F16:F18)</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">MAX(H16,G16)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">AVERAGE(F19:F20)</f>
-        <v>7</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">MAX(H19,G19)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">AVERAGE(F22:F23)</f>
-        <v>7.5</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <f aca="false">ROUND(MAX(H22,G22),0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">AVERAGE(F24:F25)</f>
-        <v>9</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">MAX(H24,G24)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">COUNTIF(I3:I27,"&gt;0")</f>
-        <v>14</v>
-      </c>
-    </row>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2811,18 +3612,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,329 +3632,552 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">AVERAGE(F3:F4)</f>
-        <v>8</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">MAX(H3,G3)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F5)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">MAX(H4,G4)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">AVERAGE(F8:F9)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>10</v>
+        <f aca="false">ROUND(MAX(H8,G8),0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">AVERAGE(F10:F12)</f>
+        <v>6.33333333333333</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>10</v>
+        <f aca="false">MAX(H10,G10)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
+      <c r="C12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">AVERAGE(F13:F15)</f>
+        <v>6.33333333333333</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">ROUND(MAX(H13,G13),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="F15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">AVERAGE(F16:F18)</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">MAX(H16,G16)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">AVERAGE(F19:F20)</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">MAX(H19,G19)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">AVERAGE(F22:F23)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">ROUND(MAX(H22,G22),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">AVERAGE(F24:F25)</f>
+        <v>9</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">MAX(H24,G24)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I3:I27,"&gt;0")</f>
         <v>14</v>
       </c>
     </row>
@@ -3172,100 +4197,349 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">AVERAGE(F3:F4)</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">MAX(H3,G3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1</v>
+      <c r="I17" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3284,17 +4558,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,51 +4577,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -3358,11 +4633,11 @@
         <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
@@ -3379,8 +4654,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3399,14 +4672,14 @@
   </sheetPr>
   <dimension ref="G1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.45"/>
@@ -3419,14 +4692,14 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="I1" s="2" t="n">
         <v>45737</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="J1" s="2" t="n">
         <v>45751</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">I2+J2</f>
@@ -3446,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
@@ -3464,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">I4+J4</f>
@@ -3476,7 +4749,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">I5+J5</f>
@@ -3488,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -3503,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">I7+J7</f>
@@ -3515,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>2</v>
@@ -3530,7 +4803,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -3548,7 +4821,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
@@ -3563,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">I11+J11</f>
@@ -3575,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -3593,7 +4866,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -3608,7 +4881,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">I14+J14</f>
@@ -3620,7 +4893,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -3632,7 +4905,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="0" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COUNTIF(I2:I15,"&gt;0")</f>

--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="206">
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
   <si>
     <t xml:space="preserve">nro</t>
   </si>
@@ -46,6 +49,27 @@
     <t xml:space="preserve">obs</t>
   </si>
   <si>
+    <t xml:space="preserve">presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total pres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santino</t>
   </si>
   <si>
@@ -193,9 +217,6 @@
     <t xml:space="preserve">soria4254@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">presentes</t>
-  </si>
-  <si>
     <t xml:space="preserve">muy tarde</t>
   </si>
   <si>
@@ -229,6 +250,9 @@
     <t xml:space="preserve">5-redes</t>
   </si>
   <si>
+    <t xml:space="preserve">asisstencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Repositorio</t>
   </si>
   <si>
@@ -509,9 +533,6 @@
   </si>
   <si>
     <t xml:space="preserve">3 minutos 46 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">25 de abril de 2025  15:57</t>
@@ -682,12 +703,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -729,6 +757,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,10 +774,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,13 +893,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
@@ -884,37 +912,46 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="V1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="X1" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>45800</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45814</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>45821</v>
@@ -923,13 +960,37 @@
         <v>45842</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>45849</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,31 +998,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:N3,"P")</f>
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>8</v>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:N3,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:N3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">COUNTIF(E3:N3,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">ROUND(P3+Q3+R3/2+S3/4+0,0)</f>
+        <v>6</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <f aca="false">ROUND(T3*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,31 +1054,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:N4,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:N4,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:N4,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">COUNTIF(E4:N4,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">ROUND(P4+Q4+R4/2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <f aca="false">ROUND(T4*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,37 +1110,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>0.631944444444444</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:N5,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:N5,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:N5,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">COUNTIF(E5:N5,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">ROUND(P5+Q5+R5/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <f aca="false">ROUND(T5*10/$W$1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,31 +1172,55 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="I6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:N6,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:N6,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:N6,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">COUNTIF(E6:N6,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">ROUND(P6+Q6+R6/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <f aca="false">ROUND(T6*10/$W$1,0)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,30 +1228,54 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="N7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:N7,"P")</f>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:N7,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:N7,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">COUNTIF(E7:N7,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">ROUND(P7+Q7+R7/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <f aca="false">ROUND(T7*10/$W$1,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -1103,40 +1284,64 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="N8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>0.604166666666667</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:N8,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:N8,"C")</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:N8,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">COUNTIF(E8:N8,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">ROUND(P8+Q8+R8/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <f aca="false">ROUND(T8*10/$W$1,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,34 +1349,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>0.638888888888889</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:N9,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:N9,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:N9,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">COUNTIF(E9:N9,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">ROUND(P9+Q9+R9/2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <f aca="false">ROUND(T9*10/$W$1,0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,31 +1408,55 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:N10,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:N10,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:N10,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">COUNTIF(E10:N10,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">ROUND(P10+Q10+R10/2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <f aca="false">ROUND(T10*10/$W$1,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,34 +1464,58 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>0.625</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:N11,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:N11,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:N11,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">COUNTIF(E11:N11,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">ROUND(P11+Q11+R11/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <f aca="false">ROUND(T11*10/$W$1,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,31 +1523,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:N12,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:N12,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:N12,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">COUNTIF(E12:N12,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">ROUND(P12+Q12+R12/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <f aca="false">ROUND(T12*10/$W$1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,33 +1579,57 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="I13" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:N13,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:N13,"C")</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:N13,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">COUNTIF(E13:N13,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">ROUND(P13+Q13+R13/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <f aca="false">ROUND(T13*10/$W$1,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -1313,31 +1638,55 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:N14,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:N14,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:N14,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">COUNTIF(E14:N14,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">ROUND(P14+Q14+R14/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <f aca="false">ROUND(T14*10/$W$1,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,31 +1694,55 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>8</v>
+      <c r="P15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:N15,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:N15,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:N15,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">COUNTIF(E15:N15,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">ROUND(P15+Q15+R15/2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <f aca="false">ROUND(T15*10/$W$1,0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,39 +1750,63 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="O16" s="4" t="n">
         <v>0.645833333333333</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:N16,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:N16,"C")</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:N16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">COUNTIF(E16:N16,"T")</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">ROUND(P16+Q16+R16/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <f aca="false">ROUND(T16*10/$W$1,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="false">COUNTIF(E3:E16,"P")</f>
@@ -1438,14 +1835,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">COUNTIF(G3:G16,"T")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1464,36 +1860,36 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1515,16 +1911,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -1543,13 +1939,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>5</v>
@@ -1557,13 +1953,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5</v>
@@ -1571,13 +1967,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -1585,13 +1981,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -1599,13 +1995,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2</v>
@@ -1613,13 +2009,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -1630,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -1644,16 +2040,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -1667,16 +2063,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -1690,16 +2086,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -1713,16 +2109,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -1736,16 +2132,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -1759,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -1773,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -1787,16 +2183,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -1815,13 +2211,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -1829,13 +2225,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -1843,13 +2239,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>4</v>
@@ -1860,16 +2256,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -1883,16 +2279,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -1906,27 +2302,27 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">COUNTIF(I2:I24,"&gt;0")</f>
@@ -1949,96 +2345,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="17" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>45821</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -2048,11 +2449,11 @@
         <f aca="false">H2+J2/2</f>
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,K2),0)</f>
         <v>6</v>
       </c>
-      <c r="M2" s="7" t="str">
+      <c r="M2" s="8" t="str">
         <f aca="false">IF(L2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2060,10 +2461,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>2</v>
@@ -2071,17 +2472,20 @@
       <c r="R2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S2" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N2:R2,L2),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N2:P2,L2),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
@@ -2102,11 +2506,11 @@
         <f aca="false">H3+J3/2</f>
         <v>9.5</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,K3),0)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="7" t="str">
+      <c r="M3" s="8" t="str">
         <f aca="false">IF(L3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2114,10 +2518,10 @@
         <v>5</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>1</v>
@@ -2125,17 +2529,20 @@
       <c r="R3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S3" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N3:R3,L3),0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N3:P3,L3),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2156,11 +2563,11 @@
         <f aca="false">H4+J4/2</f>
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,K4),0)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="M4" s="8" t="str">
         <f aca="false">IF(L4&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2168,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>1</v>
@@ -2179,17 +2586,20 @@
       <c r="R4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S4" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N4:R4,L4),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N4:P4,L4),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -2210,11 +2620,11 @@
         <f aca="false">H5+J5/2</f>
         <v>10</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,K5),0)</f>
         <v>5</v>
       </c>
-      <c r="M5" s="7" t="str">
+      <c r="M5" s="8" t="str">
         <f aca="false">IF(L5&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2222,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>7</v>
@@ -2233,17 +2643,20 @@
       <c r="R5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S5" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N5:R5,L5),0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N5:P5,L5),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -2264,11 +2677,11 @@
         <f aca="false">H6+J6/2</f>
         <v>10.5</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,K6),0)</f>
         <v>9</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="M6" s="8" t="str">
         <f aca="false">IF(L6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2276,10 +2689,10 @@
         <v>8</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>2</v>
@@ -2287,17 +2700,20 @@
       <c r="R6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S6" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N6:R6,L6),0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N6:P6,L6),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -2318,11 +2734,11 @@
         <f aca="false">H7+J7/2</f>
         <v>10</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,K7),0)</f>
         <v>9</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="M7" s="8" t="str">
         <f aca="false">IF(L7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2330,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>1</v>
@@ -2341,17 +2757,20 @@
       <c r="R7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S7" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N7:R7,L7),0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N7:P7,L7),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2372,11 +2791,11 @@
         <f aca="false">H8+J8/2</f>
         <v>2</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,K8),0)</f>
         <v>3</v>
       </c>
-      <c r="M8" s="7" t="str">
+      <c r="M8" s="8" t="str">
         <f aca="false">IF(L8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2384,7 +2803,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>1</v>
@@ -2395,17 +2814,20 @@
       <c r="R8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N8:R8,L8),0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N8:P8,L8),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -2426,11 +2848,11 @@
         <f aca="false">H9+J9/2</f>
         <v>12.5</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,K9),0)</f>
         <v>9</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="M9" s="8" t="str">
         <f aca="false">IF(L9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2438,28 +2860,31 @@
         <v>8</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S9" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N9:R9,L9),0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N9:P9,L9),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -2480,11 +2905,11 @@
         <f aca="false">H10+J10/2</f>
         <v>1.5</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,K10),0)</f>
         <v>7</v>
       </c>
-      <c r="M10" s="7" t="str">
+      <c r="M10" s="8" t="str">
         <f aca="false">IF(L10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2492,28 +2917,31 @@
         <v>1</v>
       </c>
       <c r="O10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Q10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S10" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N10:R10,L10),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N10:P10,L10),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2534,11 +2962,11 @@
         <f aca="false">H11+J11/2</f>
         <v>1</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,K11),0)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="M11" s="8" t="str">
         <f aca="false">IF(L11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2546,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>2</v>
@@ -2557,17 +2985,20 @@
       <c r="R11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S11" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N11:R11,L11),0)</f>
+      <c r="S11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N11:P11,L11),0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
@@ -2588,11 +3019,11 @@
         <f aca="false">H12+J12/2</f>
         <v>11.5</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,K12),0)</f>
         <v>9</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="M12" s="8" t="str">
         <f aca="false">IF(L12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2600,10 +3031,10 @@
         <v>7</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>1</v>
@@ -2611,25 +3042,28 @@
       <c r="R12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N12:R12,L12),0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N12:P12,L12),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>45821</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -2645,11 +3079,11 @@
         <f aca="false">H13+J13/2</f>
         <v>11.5</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,K13),0)</f>
         <v>7</v>
       </c>
-      <c r="M13" s="7" t="str">
+      <c r="M13" s="8" t="str">
         <f aca="false">IF(L13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2660,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>1</v>
@@ -2668,17 +3102,20 @@
       <c r="R13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N13:R13,L13),0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N13:P13,L13),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>8</v>
@@ -2705,11 +3142,11 @@
         <f aca="false">H14+J14/2</f>
         <v>10</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,K14),0)</f>
         <v>9</v>
       </c>
-      <c r="M14" s="7" t="str">
+      <c r="M14" s="8" t="str">
         <f aca="false">IF(L14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2717,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>7</v>
@@ -2728,17 +3165,20 @@
       <c r="R14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S14" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N14:R14,L14),0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T14" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N14:P14,L14),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -2759,11 +3199,11 @@
         <f aca="false">H15+J15/2</f>
         <v>3</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,K15),0)</f>
         <v>8</v>
       </c>
-      <c r="M15" s="7" t="str">
+      <c r="M15" s="8" t="str">
         <f aca="false">IF(L15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2774,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>1</v>
@@ -2782,9 +3222,12 @@
       <c r="R15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S15" s="8" t="n">
-        <f aca="false">ROUND(AVERAGE(N15:R15,L15),0)</f>
-        <v>5</v>
+      <c r="S15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7" t="n">
+        <f aca="false">ROUND(AVERAGE(N15:P15,L15),0)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +3241,7 @@
       <formula>"TEP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S15">
+  <conditionalFormatting sqref="T2:T15">
     <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>6</formula>
     </cfRule>
@@ -2820,11 +3263,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -2833,16 +3276,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2861,16 +3304,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -2881,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -2892,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -2903,16 +3346,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -2923,16 +3366,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -2943,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -2954,16 +3397,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -2974,16 +3417,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -2994,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3005,16 +3448,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3025,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -3036,7 +3479,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3047,16 +3490,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3080,11 +3523,11 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3095,25 +3538,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3135,16 +3578,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -3163,13 +3606,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -3177,13 +3620,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3191,13 +3634,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -3205,13 +3648,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -3222,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3236,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3250,16 +3693,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3273,16 +3716,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -3296,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3310,16 +3753,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3338,13 +3781,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -3355,16 +3798,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3378,7 +3821,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3392,16 +3835,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -3420,13 +3863,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -3437,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3451,7 +3894,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -3465,16 +3908,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -3501,11 +3944,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -3514,54 +3957,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -3614,11 +4057,11 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
@@ -3629,25 +4072,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,16 +4098,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -3678,16 +4121,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -3706,13 +4149,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3723,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3737,16 +4180,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -3760,16 +4203,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -3788,13 +4231,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
@@ -3805,16 +4248,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3833,13 +4276,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -3847,13 +4290,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -3864,16 +4307,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3892,13 +4335,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -3906,13 +4349,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -3923,16 +4366,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -3951,13 +4394,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -3965,13 +4408,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
@@ -3982,16 +4425,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4010,13 +4453,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -4027,7 +4470,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4041,16 +4484,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -4069,13 +4512,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>7</v>
@@ -4086,16 +4529,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4114,13 +4557,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -4131,16 +4574,16 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -4154,16 +4597,16 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -4174,7 +4617,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="0" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">COUNTIF(I3:I27,"&gt;0")</f>
@@ -4199,11 +4642,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
@@ -4213,25 +4656,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4253,16 +4696,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -4281,13 +4724,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -4298,16 +4741,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -4321,16 +4764,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -4344,16 +4787,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -4367,16 +4810,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4390,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4404,16 +4847,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4427,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4441,7 +4884,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -4455,16 +4898,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -4478,16 +4921,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -4501,16 +4944,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -4524,7 +4967,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -4535,7 +4978,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">COUNTIF(I2:I16,"&gt;0")</f>
@@ -4560,11 +5003,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
@@ -4574,54 +5017,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -4672,11 +5115,11 @@
   </sheetPr>
   <dimension ref="G1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -4687,10 +5130,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="n">
         <v>45737</v>
@@ -4699,7 +5142,7 @@
         <v>45751</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">I2+J2</f>
@@ -4719,7 +5162,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
@@ -4737,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">I4+J4</f>
@@ -4749,7 +5192,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">I5+J5</f>
@@ -4761,7 +5204,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -4776,7 +5219,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">I7+J7</f>
@@ -4788,7 +5231,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>2</v>
@@ -4803,7 +5246,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -4821,7 +5264,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
@@ -4836,7 +5279,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">I11+J11</f>
@@ -4848,7 +5291,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -4866,7 +5309,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -4881,7 +5324,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">I14+J14</f>
@@ -4893,7 +5336,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -4905,7 +5348,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COUNTIF(I2:I15,"&gt;0")</f>

--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="206">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -253,19 +253,19 @@
     <t xml:space="preserve">asisstencia</t>
   </si>
   <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio casas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Repositorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t xml:space="preserve">swith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ciclos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promedio casas</t>
   </si>
   <si>
     <t xml:space="preserve">Finalizado</t>
@@ -665,7 +665,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -683,7 +682,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,8 +691,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+        <bgColor rgb="FFFF9800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF9800"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFFC107"/>
       </patternFill>
     </fill>
     <fill>
@@ -744,7 +749,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -773,7 +778,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,7 +790,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -794,11 +803,31 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <name val="Calibri"/>
-        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF006600"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -807,20 +836,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF006600"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -870,7 +885,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC107"/>
       <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -895,17 +910,19 @@
   </sheetPr>
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W9" activeCellId="1" sqref="12:12 W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="29.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="5" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="20" min="11" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,6 +1003,9 @@
       <c r="U2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="V2" s="2" t="n">
+        <v>45856</v>
+      </c>
       <c r="W2" s="0" t="s">
         <v>1</v>
       </c>
@@ -1048,6 +1068,9 @@
         <f aca="false">ROUND(T3*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1104,6 +1127,9 @@
         <f aca="false">ROUND(T4*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1166,6 +1192,9 @@
         <f aca="false">ROUND(T5*10/$W$1,0)</f>
         <v>0</v>
       </c>
+      <c r="V5" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1222,6 +1251,9 @@
         <f aca="false">ROUND(T6*10/$W$1,0)</f>
         <v>5</v>
       </c>
+      <c r="V6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1278,6 +1310,9 @@
         <f aca="false">ROUND(T7*10/$W$1,0)</f>
         <v>8</v>
       </c>
+      <c r="V7" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1343,6 +1378,12 @@
         <f aca="false">ROUND(T8*10/$W$1,0)</f>
         <v>7</v>
       </c>
+      <c r="V8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1402,6 +1443,9 @@
         <f aca="false">ROUND(T9*10/$W$1,0)</f>
         <v>3</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1458,6 +1502,9 @@
         <f aca="false">ROUND(T10*10/$W$1,0)</f>
         <v>10</v>
       </c>
+      <c r="V10" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1517,6 +1564,9 @@
         <f aca="false">ROUND(T11*10/$W$1,0)</f>
         <v>7</v>
       </c>
+      <c r="V11" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1572,6 +1622,9 @@
       <c r="U12" s="3" t="n">
         <f aca="false">ROUND(T12*10/$W$1,0)</f>
         <v>0</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,6 +1685,9 @@
         <f aca="false">ROUND(T13*10/$W$1,0)</f>
         <v>8</v>
       </c>
+      <c r="V13" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1688,6 +1744,9 @@
         <f aca="false">ROUND(T14*10/$W$1,0)</f>
         <v>7</v>
       </c>
+      <c r="V14" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1744,6 +1803,9 @@
         <f aca="false">ROUND(T15*10/$W$1,0)</f>
         <v>3</v>
       </c>
+      <c r="V15" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1803,6 +1865,9 @@
         <f aca="false">ROUND(T16*10/$W$1,0)</f>
         <v>7</v>
       </c>
+      <c r="V16" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
@@ -1830,6 +1895,10 @@
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">COUNTIF(N3:N16,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V16,"P")</f>
         <v>6</v>
       </c>
     </row>
@@ -1860,11 +1929,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="12:12 E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
   </cols>
@@ -2320,7 +2389,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="0" t="s">
         <v>205</v>
       </c>
@@ -2345,20 +2414,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.44"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="17" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="18" min="16" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,7 +2482,7 @@
       <c r="S1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2424,22 +2493,25 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="n">
+      <c r="C2" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="D2" s="6" t="n">
+        <v>45855</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="n">
         <v>45821</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="8" t="n">
         <v>45849</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -2449,22 +2521,22 @@
         <f aca="false">H2+J2/2</f>
         <v>9</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C2,E2,G2,K2),0)</f>
-        <v>6</v>
-      </c>
-      <c r="M2" s="8" t="str">
+        <v>7</v>
+      </c>
+      <c r="M2" s="9" t="str">
         <f aca="false">IF(L2&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
+        <v>TEA</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>2</v>
@@ -2472,12 +2544,12 @@
       <c r="R2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N2:P2,L2),0)</f>
-        <v>6</v>
+      <c r="S2" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N2:O2,L2),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,11 +2578,11 @@
         <f aca="false">H3+J3/2</f>
         <v>9.5</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C3,E3,G3,K3),0)</f>
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="M3" s="9" t="str">
         <f aca="false">IF(L3&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2521,7 +2593,7 @@
         <v>10</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>1</v>
@@ -2529,12 +2601,12 @@
       <c r="R3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N3:P3,L3),0)</f>
-        <v>8</v>
+      <c r="S3" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N3:O3,L3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,11 +2635,11 @@
         <f aca="false">H4+J4/2</f>
         <v>8</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C4,E4,G4,K4),0)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="str">
+      <c r="M4" s="9" t="str">
         <f aca="false">IF(L4&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2586,11 +2658,11 @@
       <c r="R4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N4:P4,L4),0)</f>
+      <c r="S4" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N4:O4,L4),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,11 +2673,17 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
+      <c r="C5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>45887</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>45856</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>9</v>
@@ -2620,13 +2698,13 @@
         <f aca="false">H5+J5/2</f>
         <v>10</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C5,E5,G5,K5),0)</f>
-        <v>5</v>
-      </c>
-      <c r="M5" s="8" t="str">
+        <v>8</v>
+      </c>
+      <c r="M5" s="9" t="str">
         <f aca="false">IF(L5&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+        <v>TEA</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>8</v>
@@ -2643,12 +2721,12 @@
       <c r="R5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="T5" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N5:P5,L5),0)</f>
-        <v>6</v>
+      <c r="S5" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N5:O5,L5),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,11 +2755,11 @@
         <f aca="false">H6+J6/2</f>
         <v>10.5</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C6,E6,G6,K6),0)</f>
         <v>9</v>
       </c>
-      <c r="M6" s="8" t="str">
+      <c r="M6" s="9" t="str">
         <f aca="false">IF(L6&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2692,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>2</v>
@@ -2700,12 +2778,12 @@
       <c r="R6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N6:P6,L6),0)</f>
-        <v>9</v>
+      <c r="S6" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N6:O6,L6),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,11 +2812,11 @@
         <f aca="false">H7+J7/2</f>
         <v>10</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C7,E7,G7,K7),0)</f>
         <v>9</v>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="M7" s="9" t="str">
         <f aca="false">IF(L7&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2757,12 +2835,12 @@
       <c r="R7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N7:P7,L7),0)</f>
-        <v>7</v>
+      <c r="S7" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N7:O7,L7),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,11 +2869,11 @@
         <f aca="false">H8+J8/2</f>
         <v>2</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C8,E8,G8,K8),0)</f>
         <v>3</v>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="9" t="str">
         <f aca="false">IF(L8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2814,12 +2892,12 @@
       <c r="R8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N8:P8,L8),0)</f>
-        <v>4</v>
+      <c r="S8" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N8:O8,L8),0)</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,11 +2926,11 @@
         <f aca="false">H9+J9/2</f>
         <v>12.5</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C9,E9,G9,K9),0)</f>
         <v>9</v>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="M9" s="9" t="str">
         <f aca="false">IF(L9&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -2866,17 +2944,17 @@
         <v>7</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N9:P9,L9),0)</f>
+      <c r="S9" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N9:O9,L9),0)</f>
         <v>9</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,45 +2973,48 @@
       <c r="G10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
+      <c r="H10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>45855</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false">H10+J10/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="L10" s="7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L10" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C10,E10,G10,K10),0)</f>
-        <v>7</v>
-      </c>
-      <c r="M10" s="8" t="str">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9" t="str">
         <f aca="false">IF(L10&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>1</v>
+      <c r="N10" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>7</v>
       </c>
       <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N10:O10,L10),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N10:P10,L10),0)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2962,11 +3043,11 @@
         <f aca="false">H11+J11/2</f>
         <v>1</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C11,E11,G11,K11),0)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="M11" s="9" t="str">
         <f aca="false">IF(L11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
@@ -2977,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>2</v>
@@ -2985,12 +3066,12 @@
       <c r="R11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T11" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N11:P11,L11),0)</f>
-        <v>3</v>
+      <c r="S11" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N11:O11,L11),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,11 +3100,11 @@
         <f aca="false">H12+J12/2</f>
         <v>11.5</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C12,E12,G12,K12),0)</f>
         <v>9</v>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="9" t="str">
         <f aca="false">IF(L12&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3034,7 +3115,7 @@
         <v>8</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>1</v>
@@ -3042,12 +3123,12 @@
       <c r="R12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N12:P12,L12),0)</f>
-        <v>9</v>
+      <c r="S12" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N12:O12,L12),0)</f>
+        <v>8</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3141,10 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="8" t="n">
         <v>45821</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -3079,11 +3160,11 @@
         <f aca="false">H13+J13/2</f>
         <v>11.5</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C13,E13,G13,K13),0)</f>
         <v>7</v>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="9" t="str">
         <f aca="false">IF(L13&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3094,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>1</v>
@@ -3102,11 +3183,11 @@
       <c r="R13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N13:P13,L13),0)</f>
+      <c r="S13" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N13:O13,L13),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U13" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3117,13 +3198,13 @@
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>45758</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="10" t="n">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="n">
@@ -3142,11 +3223,11 @@
         <f aca="false">H14+J14/2</f>
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C14,E14,G14,K14),0)</f>
         <v>9</v>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="9" t="str">
         <f aca="false">IF(L14&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3165,11 +3246,11 @@
       <c r="R14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S14" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="T14" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N14:P14,L14),0)</f>
+      <c r="S14" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N14:O14,L14),0)</f>
+        <v>7</v>
+      </c>
+      <c r="U14" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3189,21 +3270,24 @@
       <c r="G15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
+      <c r="H15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>45856</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">H15+J15/2</f>
-        <v>3</v>
-      </c>
-      <c r="L15" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L15" s="9" t="n">
         <f aca="false">ROUND(AVERAGE(C15,E15,G15,K15),0)</f>
-        <v>8</v>
-      </c>
-      <c r="M15" s="8" t="str">
+        <v>10</v>
+      </c>
+      <c r="M15" s="9" t="str">
         <f aca="false">IF(L15&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
@@ -3214,7 +3298,7 @@
         <v>7</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>1</v>
@@ -3222,28 +3306,25 @@
       <c r="R15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="7" t="n">
-        <f aca="false">ROUND(AVERAGE(N15:P15,L15),0)</f>
-        <v>8</v>
+      <c r="S15" s="9" t="n">
+        <f aca="false">ROUND(AVERAGE(N15:O15,L15),0)</f>
+        <v>9</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L15">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>7</formula>
+  <conditionalFormatting sqref="S2:S15">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M15">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"TEP"</formula>
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>4</formula>
+      <formula>6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T15">
-    <cfRule type="cellIs" priority="4" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>6</formula>
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3263,11 +3344,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="12:12 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3523,11 +3604,11 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="12:12 G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3942,13 +4023,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="12:12 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -4037,8 +4118,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4057,11 +4136,11 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="12:12 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
@@ -4642,11 +4721,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="12:12 I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
@@ -4976,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
         <v>0</v>
       </c>
@@ -5003,11 +5082,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="12:12 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
@@ -5115,11 +5194,11 @@
   </sheetPr>
   <dimension ref="G1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="12:12 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>

--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="206">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -665,6 +665,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -807,6 +808,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FF006600"/>
         <sz val="12"/>
@@ -820,6 +822,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <color rgb="FFCC0000"/>
         <sz val="12"/>
@@ -828,6 +831,7 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <charset val="1"/>
         <family val="0"/>
         <b val="1"/>
         <color rgb="FFFFFFFF"/>
@@ -910,11 +914,11 @@
   </sheetPr>
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W9" activeCellId="1" sqref="12:12 W9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
@@ -1929,11 +1933,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="12:12 E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
   </cols>
@@ -2414,18 +2418,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="12:12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="12" style="0" width="9.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="11.44"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="18" min="16" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.62"/>
   </cols>
@@ -2482,7 +2487,10 @@
       <c r="S1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="T1" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="W1" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2548,7 +2556,7 @@
         <f aca="false">ROUND(AVERAGE(N2:O2,L2),0)</f>
         <v>7</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2605,7 +2613,7 @@
         <f aca="false">ROUND(AVERAGE(N3:O3,L3),0)</f>
         <v>8</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2662,7 +2670,10 @@
         <f aca="false">ROUND(AVERAGE(N4:O4,L4),0)</f>
         <v>1</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="T4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2725,7 +2736,7 @@
         <f aca="false">ROUND(AVERAGE(N5:O5,L5),0)</f>
         <v>7</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2782,7 +2793,7 @@
         <f aca="false">ROUND(AVERAGE(N6:O6,L6),0)</f>
         <v>8</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2839,7 +2850,7 @@
         <f aca="false">ROUND(AVERAGE(N7:O7,L7),0)</f>
         <v>9</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,7 +2907,10 @@
         <f aca="false">ROUND(AVERAGE(N8:O8,L8),0)</f>
         <v>5</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="T8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,7 +2967,7 @@
         <f aca="false">ROUND(AVERAGE(N9:O9,L9),0)</f>
         <v>9</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
         <f aca="false">ROUND(AVERAGE(N10:O10,L10),0)</f>
         <v>7</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3070,7 +3084,10 @@
         <f aca="false">ROUND(AVERAGE(N11:O11,L11),0)</f>
         <v>1</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="T11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3127,7 +3144,7 @@
         <f aca="false">ROUND(AVERAGE(N12:O12,L12),0)</f>
         <v>8</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3187,7 +3204,7 @@
         <f aca="false">ROUND(AVERAGE(N13:O13,L13),0)</f>
         <v>7</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3250,7 +3267,7 @@
         <f aca="false">ROUND(AVERAGE(N14:O14,L14),0)</f>
         <v>7</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3310,7 +3327,7 @@
         <f aca="false">ROUND(AVERAGE(N15:O15,L15),0)</f>
         <v>9</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3344,11 +3361,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="12:12 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3604,11 +3621,11 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="12:12 G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -4025,11 +4042,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="12:12 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -4136,11 +4153,11 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="12:12 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
@@ -4721,11 +4738,11 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="1" sqref="12:12 I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
@@ -5082,11 +5099,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="12:12 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
@@ -5194,11 +5211,11 @@
   </sheetPr>
   <dimension ref="G1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="12:12 K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>

--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asistencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="207">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">nota presentes</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Santino</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matias</t>
   </si>
   <si>
@@ -100,12 +103,6 @@
     <t xml:space="preserve">cubillaezequiel30@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
     <t xml:space="preserve">complicado</t>
   </si>
   <si>
@@ -217,7 +214,13 @@
     <t xml:space="preserve">soria4254@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">media fatta</t>
+  </si>
+  <si>
     <t xml:space="preserve">muy tarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todos</t>
   </si>
   <si>
     <t xml:space="preserve">1-uml</t>
@@ -912,13 +915,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z4" activeCellId="0" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
@@ -1011,10 +1014,16 @@
         <v>45856</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,31 +1031,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="0" t="n">
         <f aca="false">COUNTIF(E3:N3,"P")</f>
@@ -1073,7 +1082,16 @@
         <v>10</v>
       </c>
       <c r="V3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.645833333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,31 +1099,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="0" t="n">
         <f aca="false">COUNTIF(E4:N4,"P")</f>
@@ -1132,7 +1150,13 @@
         <v>10</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,37 +1164,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0.631944444444444</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">COUNTIF(E5:N5,"P")</f>
@@ -1197,7 +1221,13 @@
         <v>0</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,31 +1235,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="K6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">COUNTIF(E6:N6,"P")</f>
@@ -1256,7 +1286,13 @@
         <v>5</v>
       </c>
       <c r="V6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,31 +1300,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">COUNTIF(E7:N7,"P")</f>
@@ -1315,7 +1351,13 @@
         <v>8</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,37 +1365,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>0.638888888888889</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="O8" s="4" t="n">
         <v>0.604166666666667</v>
@@ -1383,45 +1425,54 @@
         <v>7</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" s="4" t="n">
         <v>0.625</v>
       </c>
+      <c r="X8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.638888888888889</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0.638888888888889</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="N9" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">COUNTIF(E9:N9,"P")</f>
@@ -1448,7 +1499,13 @@
         <v>3</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,31 +1513,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">COUNTIF(E10:N10,"P")</f>
@@ -1507,7 +1564,13 @@
         <v>10</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,34 +1578,34 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="L11" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0.625</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">COUNTIF(E11:N11,"P")</f>
@@ -1569,7 +1632,13 @@
         <v>7</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,31 +1646,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">COUNTIF(E12:N12,"P")</f>
@@ -1628,7 +1697,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,34 +1711,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="K13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">COUNTIF(E13:N13,"P")</f>
@@ -1690,7 +1765,13 @@
         <v>8</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,31 +1779,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">COUNTIF(E14:N14,"P")</f>
@@ -1749,7 +1830,16 @@
         <v>7</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>0.638888888888889</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,31 +1847,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">COUNTIF(E15:N15,"P")</f>
@@ -1808,7 +1898,13 @@
         <v>3</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,31 +1912,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="N16" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O16" s="4" t="n">
         <v>0.645833333333333</v>
@@ -1870,10 +1966,22 @@
         <v>7</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>0.638888888888889</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="0" t="s">
         <v>6</v>
       </c>
@@ -1905,14 +2013,71 @@
         <f aca="false">COUNTIF(V3:V16,"P")</f>
         <v>6</v>
       </c>
+      <c r="X17" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X16,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y16,"P")</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" s="0" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="0" t="n">
         <f aca="false">COUNTIF(G3:G16,"T")</f>
         <v>2</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V16,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y16,"M")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V16,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <f aca="false">COUNTIF(X3:X16,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y16,"T")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">SUM(V17:V19)</f>
+        <v>7</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">SUM(X17:X19)</f>
+        <v>8</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">SUM(Y17:Y19)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +2102,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
   </cols>
@@ -1950,19 +2115,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1984,16 +2149,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -2012,13 +2177,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>5</v>
@@ -2026,13 +2191,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5</v>
@@ -2040,13 +2205,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4</v>
@@ -2054,13 +2219,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -2068,13 +2233,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>2</v>
@@ -2082,13 +2247,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2099,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -2113,16 +2278,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>8</v>
@@ -2136,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -2159,16 +2324,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -2182,16 +2347,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -2205,16 +2370,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -2228,7 +2393,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -2242,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -2256,16 +2421,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -2284,13 +2449,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -2298,13 +2463,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>6</v>
@@ -2312,13 +2477,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>4</v>
@@ -2329,16 +2494,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -2352,16 +2517,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -2375,27 +2540,27 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">COUNTIF(I2:I24,"&gt;0")</f>
@@ -2420,18 +2585,18 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="12" style="0" width="9.53"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="12" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="11.44"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="18" min="16" style="0" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="16" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.62"/>
   </cols>
   <sheetData>
@@ -2443,55 +2608,55 @@
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T1" s="2" t="n">
         <v>45877</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>6</v>
@@ -2565,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
@@ -2622,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2671,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>1</v>
@@ -2682,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>6</v>
@@ -2745,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>8</v>
@@ -2802,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -2859,7 +3024,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2908,7 +3073,7 @@
         <v>5</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>1</v>
@@ -2919,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -2976,7 +3141,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -3036,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3085,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>10</v>
@@ -3096,7 +3261,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
@@ -3153,7 +3318,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -3213,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>8</v>
@@ -3276,7 +3441,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -3365,7 +3530,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3377,13 +3542,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3402,16 +3567,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7</v>
@@ -3422,7 +3587,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -3433,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -3444,16 +3609,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>8</v>
@@ -3464,16 +3629,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -3484,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3495,16 +3660,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7</v>
@@ -3515,16 +3680,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -3535,7 +3700,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3546,16 +3711,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>9</v>
@@ -3566,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -3577,7 +3742,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3588,16 +3753,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3625,7 +3790,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3639,22 +3804,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -3676,16 +3841,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>9</v>
@@ -3704,13 +3869,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7</v>
@@ -3718,13 +3883,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3732,13 +3897,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>6</v>
@@ -3746,13 +3911,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4</v>
@@ -3763,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3777,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3791,16 +3956,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -3814,16 +3979,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>9</v>
@@ -3837,7 +4002,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3851,16 +4016,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -3879,13 +4044,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -3896,16 +4061,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -3919,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3933,16 +4098,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>9</v>
@@ -3961,13 +4126,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>5</v>
@@ -3978,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -3992,7 +4157,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -4006,16 +4171,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -4046,7 +4211,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -4058,51 +4223,51 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -4157,7 +4322,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
@@ -4171,22 +4336,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,16 +4359,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>6</v>
@@ -4217,16 +4382,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -4245,13 +4410,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -4262,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -4276,16 +4441,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -4299,16 +4464,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -4327,13 +4492,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
@@ -4344,16 +4509,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>8</v>
@@ -4372,13 +4537,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7</v>
@@ -4386,13 +4551,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>4</v>
@@ -4403,16 +4568,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>9</v>
@@ -4431,13 +4596,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>9</v>
@@ -4445,13 +4610,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -4462,16 +4627,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>9</v>
@@ -4490,13 +4655,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -4504,13 +4669,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
@@ -4521,16 +4686,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -4549,13 +4714,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -4566,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
@@ -4580,16 +4745,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -4608,13 +4773,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>7</v>
@@ -4625,16 +4790,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -4653,13 +4818,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>8</v>
@@ -4670,16 +4835,16 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -4693,16 +4858,16 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -4742,7 +4907,7 @@
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
@@ -4755,22 +4920,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -4792,16 +4957,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -4820,13 +4985,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -4837,16 +5002,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>8</v>
@@ -4860,16 +5025,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10</v>
@@ -4883,16 +5048,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>10</v>
@@ -4906,16 +5071,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>10</v>
@@ -4929,7 +5094,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -4943,16 +5108,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>10</v>
@@ -4966,7 +5131,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -4980,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -4994,16 +5159,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>10</v>
@@ -5017,16 +5182,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>10</v>
@@ -5040,16 +5205,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>10</v>
@@ -5063,7 +5228,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -5103,7 +5268,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
@@ -5116,51 +5281,51 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>8</v>
@@ -5215,7 +5380,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
@@ -5238,7 +5403,7 @@
         <v>45751</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">I2+J2</f>
@@ -5258,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
@@ -5276,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">I4+J4</f>
@@ -5288,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">I5+J5</f>
@@ -5300,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -5315,7 +5480,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">I7+J7</f>
@@ -5327,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>2</v>
@@ -5342,7 +5507,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>4</v>
@@ -5360,7 +5525,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
@@ -5375,7 +5540,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">I11+J11</f>
@@ -5387,7 +5552,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -5405,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3</v>
@@ -5420,7 +5585,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">I14+J14</f>
@@ -5432,7 +5597,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -5444,7 +5609,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">COUNTIF(I2:I15,"&gt;0")</f>

--- a/inasistencias-7A/Alumnos-7A.xlsx
+++ b/inasistencias-7A/Alumnos-7A.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="207">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -915,21 +915,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z4" activeCellId="0" sqref="Z4"/>
+      <selection pane="topLeft" activeCell="AC8" activeCellId="0" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="21.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="29.19"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="5" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="5" style="0" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="20" min="11" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="11" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,6 +1025,15 @@
       <c r="Z2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="AA2" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45933</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1093,6 +1102,15 @@
       <c r="Z3" s="4" t="n">
         <v>0.645833333333333</v>
       </c>
+      <c r="AA3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1158,6 +1176,12 @@
       <c r="Y4" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1229,6 +1253,12 @@
       <c r="Y5" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AA5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1294,6 +1324,12 @@
       <c r="Y6" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1359,6 +1395,12 @@
       <c r="Y7" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1439,6 +1481,15 @@
       <c r="Z8" s="4" t="n">
         <v>0.638888888888889</v>
       </c>
+      <c r="AA8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1507,6 +1558,12 @@
       <c r="Y9" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AA9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1572,6 +1629,15 @@
       <c r="Y10" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AA10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1640,6 +1706,12 @@
       <c r="Y11" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1703,6 +1775,12 @@
         <v>16</v>
       </c>
       <c r="Y12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1773,6 +1851,12 @@
       <c r="Y13" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="AA13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1841,6 +1925,12 @@
       <c r="Z14" s="4" t="n">
         <v>0.638888888888889</v>
       </c>
+      <c r="AA14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1906,6 +1996,15 @@
       <c r="Y15" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AA15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1977,6 +2076,12 @@
       <c r="Z16" s="4" t="n">
         <v>0.638888888888889</v>
       </c>
+      <c r="AA16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
@@ -2021,6 +2126,14 @@
         <f aca="false">COUNTIF(Y3:Y16,"P")</f>
         <v>7</v>
       </c>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA16,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC16,"P")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
@@ -2045,6 +2158,14 @@
         <f aca="false">COUNTIF(Y3:Y16,"M")</f>
         <v>0</v>
       </c>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA16,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC16,"M")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
@@ -2062,6 +2183,14 @@
         <f aca="false">COUNTIF(Y3:Y16,"T")</f>
         <v>2</v>
       </c>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA16,"T")</f>
+        <v>4</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <f aca="false">COUNTIF(AC3:AC16,"T")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
@@ -2078,6 +2207,14 @@
       <c r="Y20" s="0" t="n">
         <f aca="false">SUM(Y17:Y19)</f>
         <v>9</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">SUM(AA17:AA19)</f>
+        <v>8</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">SUM(AC17:AC19)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2239,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.17"/>
   </cols>
@@ -2589,12 +2726,12 @@
       <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="3" style="0" width="9.36"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="14" min="12" style="0" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="12" style="0" width="9.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="16" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.62"/>
@@ -3530,7 +3667,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -3790,7 +3927,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
@@ -4211,7 +4348,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.64"/>
@@ -4322,7 +4459,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.32"/>
@@ -4907,7 +5044,7 @@
       <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.45"/>
@@ -5268,7 +5405,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.06"/>
@@ -5380,7 +5517,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
